--- a/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
+++ b/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6967" uniqueCount="2124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6970" uniqueCount="2127">
   <si>
     <t>BRPSPTY BAU Renewable Portfolio Std Percentage This Year</t>
   </si>
@@ -6197,9 +6197,6 @@
     <t>Generation by Entities 1.5-3% of Total</t>
   </si>
   <si>
-    <t>Generation by Entities &gt;3% of Total</t>
-  </si>
-  <si>
     <t>Abbr.</t>
   </si>
   <si>
@@ -6257,9 +6254,6 @@
     <t>Specific percentages defined for each year through 2020 (see schedule at right)</t>
   </si>
   <si>
-    <t>10% in 2010, 15% in 2015, 30% in 2020, 40% in 2030</t>
-  </si>
-  <si>
     <t>We take a simple average of the RPS percentages for coops and munis of varying sizes in 2020 (the only year in which their targets differ).</t>
   </si>
   <si>
@@ -6377,15 +6371,9 @@
     <t>IOUs: specific percentages defined for each year through 2026.  No RPS for munis or coops.</t>
   </si>
   <si>
-    <t>Utilities serving &gt;3% state load: 5% (2011), 15% (2015), 20% (2020), 25% (2025).  Utilities serving 1.5%-3% state load: 10% (2025).  Utilities serving &lt;1.5% state load: 5% (2025).</t>
-  </si>
-  <si>
     <t>Specific percentages defined for each year through 2021 (see schedule at right)</t>
   </si>
   <si>
-    <t>8.5% (2014-2015), +1.5% per year thereafter through 2020</t>
-  </si>
-  <si>
     <t>Vermont</t>
   </si>
   <si>
@@ -6393,6 +6381,27 @@
   </si>
   <si>
     <t>We exclude the percentage for Tier II renewables, because Tier 2 is only 2.5%, phases to zero in 2020, and only includes hydro.</t>
+  </si>
+  <si>
+    <t>10% in 2010, 15% in 2015, 30% in 2020, 40% in 2030, 70% in 2040, 100% in 2045</t>
+  </si>
+  <si>
+    <t>Investor-owned utilities serving &gt;3% state load: 5% (2011), 15% (2015), 20% (2020), 27% (2025), 35% (2030), 45% (2035), 50% (2040).  Consumer-owned utilities serving &gt;3% state load: 25% (2025).  Utilities serving 1.5%-3% state load: 10% (2025).  Utilities serving &lt;1.5% state load: 5% (2025).</t>
+  </si>
+  <si>
+    <t>Generation by Other Entities &gt;3% of Total</t>
+  </si>
+  <si>
+    <t>Generation by Investor-Owned Entities &gt;3% of Total</t>
+  </si>
+  <si>
+    <t>8.5% (2014-2015), +1.5% per year thereafter through 2035</t>
+  </si>
+  <si>
+    <t>Specific percentages defined for each year through 2032 (see schedule at right)</t>
+  </si>
+  <si>
+    <t>This is true even for targets that only apply to a fraction of a state's utilities (as in Oregon).</t>
   </si>
 </sst>
 </file>
@@ -6402,7 +6411,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -6623,7 +6632,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6929,14 +6938,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="122.7109375" customWidth="1"/>
+    <col min="2" max="2" width="122.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6954,7 +6963,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6964,12 +6973,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7071,27 +7080,27 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7099,128 +7108,133 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="B39" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B40" t="s">
         <v>2088</v>
       </c>
-      <c r="B38" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>2089</v>
-      </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-    </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>2062</v>
-      </c>
-      <c r="B42" s="28"/>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>2079</v>
-      </c>
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>2093</v>
+        <v>63</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>2094</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="B45" s="44" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B47" s="44" t="s">
         <v>2100</v>
       </c>
-      <c r="B46" s="44" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>2101</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>2065</v>
+        <v>59</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>2066</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>2061</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>2121</v>
+        <v>62</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>2122</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="44" t="s">
-        <v>2123</v>
+      <c r="B54" s="44" t="s">
+        <v>2119</v>
       </c>
     </row>
   </sheetData>
@@ -7234,23 +7248,25 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="4" customWidth="1"/>
     <col min="5" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E1" s="16" t="s">
         <v>75</v>
       </c>
@@ -7271,18 +7287,18 @@
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E2" s="14">
         <v>2014</v>
@@ -7341,8 +7357,62 @@
       <c r="W2" s="14">
         <v>2032</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="14">
+        <v>2033</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>2034</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>2035</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>2036</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>2037</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>2038</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>2039</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>2040</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>2041</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>2042</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>2043</v>
+      </c>
+      <c r="AI2" s="14">
+        <v>2044</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>2045</v>
+      </c>
+      <c r="AK2" s="14">
+        <v>2046</v>
+      </c>
+      <c r="AL2" s="14">
+        <v>2047</v>
+      </c>
+      <c r="AM2" s="14">
+        <v>2048</v>
+      </c>
+      <c r="AN2" s="14">
+        <v>2049</v>
+      </c>
+      <c r="AO2" s="14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7404,8 +7474,68 @@
       <c r="U3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -7467,8 +7597,68 @@
       <c r="U4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -7476,7 +7666,7 @@
         <v>202</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D5" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B5)</f>
@@ -7523,7 +7713,7 @@
         <v>0.15</v>
       </c>
       <c r="R5" s="11">
-        <f t="shared" ref="R5:U5" si="0">$P5</f>
+        <f t="shared" ref="R5:AO5" si="0">$P5</f>
         <v>0.15</v>
       </c>
       <c r="S5" s="11">
@@ -7538,8 +7728,88 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AC5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AI5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AJ5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AK5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AL5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AM5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AN5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="AO5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7601,8 +7871,68 @@
       <c r="U6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -7610,7 +7940,7 @@
         <v>238</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D7" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B7)</f>
@@ -7679,8 +8009,88 @@
       <c r="U7" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="V7" s="3">
+        <f>$U7</f>
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" ref="W7:AO7" si="3">$U7</f>
+        <v>0.5</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AL7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AM7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7688,7 +8098,7 @@
         <v>285</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D8" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B8)</f>
@@ -7727,43 +8137,123 @@
         <v>0.23689530291322378</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" ref="M8:U8" si="3">$K8</f>
+        <f t="shared" ref="M8:AO8" si="4">$K8</f>
         <v>0.23689530291322378</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23689530291322378</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23689530291322378</v>
       </c>
       <c r="P8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23689530291322378</v>
       </c>
       <c r="Q8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23689530291322378</v>
       </c>
       <c r="R8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23689530291322378</v>
       </c>
       <c r="S8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23689530291322378</v>
       </c>
       <c r="T8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23689530291322378</v>
       </c>
       <c r="U8" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23689530291322378</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="W8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="Y8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="Z8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AA8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AB8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AC8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AD8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AE8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AF8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AH8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AI8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AJ8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AK8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AL8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AM8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AN8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+      <c r="AO8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23689530291322378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7771,7 +8261,7 @@
         <v>326</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D9" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B9)</f>
@@ -7803,43 +8293,123 @@
         <v>0.27</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" ref="M9:U9" si="4">$K9</f>
+        <f t="shared" ref="M9:AO9" si="5">$K9</f>
         <v>0.27</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AH9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AL9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AM9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AN9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+      <c r="AO9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7847,7 +8417,7 @@
         <v>339</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D10" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B10)</f>
@@ -7894,23 +8464,103 @@
         <v>0.25</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" ref="R10:U10" si="5">$P10</f>
+        <f t="shared" ref="R10:AO10" si="6">$P10</f>
         <v>0.25</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AN10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="AO10" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7972,8 +8622,68 @@
       <c r="U11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -8035,8 +8745,68 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -8044,7 +8814,7 @@
         <v>468</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>2078</v>
+        <v>2120</v>
       </c>
       <c r="D13" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B13)</f>
@@ -8066,11 +8836,11 @@
         <v>0.21</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" ref="I13:J13" si="6">$F13+($K13-$F13)*(I$2-$F$2)/($K$2-$F$2)</f>
+        <f t="shared" ref="I13:J13" si="7">$F13+($K13-$F13)*(I$2-$F$2)/($K$2-$F$2)</f>
         <v>0.24</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27</v>
       </c>
       <c r="K13" s="18">
@@ -8081,42 +8851,120 @@
         <v>0.31</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" ref="M13:T13" si="7">$K13+($U13-$K13)*(M$2-$K$2)/($U$2-$K$2)</f>
+        <f t="shared" ref="M13:T13" si="8">$K13+($U13-$K13)*(M$2-$K$2)/($U$2-$K$2)</f>
         <v>0.32</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34</v>
       </c>
       <c r="P13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="Q13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.36</v>
       </c>
       <c r="R13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.37</v>
       </c>
       <c r="S13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.38</v>
       </c>
       <c r="T13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.39</v>
       </c>
       <c r="U13" s="18">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V13" s="11">
+        <f t="shared" ref="V13:W13" si="9">$U13+($AE13-$U13)*(V$2-$U$2)/($AE$2-$U$2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="9"/>
+        <v>0.46</v>
+      </c>
+      <c r="X13" s="11">
+        <f>$U13+($AE13-$U13)*(X$2-$U$2)/($AE$2-$U$2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="Y13" s="11">
+        <f t="shared" ref="Y13:AD13" si="10">$U13+($AE13-$U13)*(Y$2-$U$2)/($AE$2-$U$2)</f>
+        <v>0.52</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="10"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA13" s="11">
+        <f t="shared" si="10"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AB13" s="11">
+        <f t="shared" si="10"/>
+        <v>0.61</v>
+      </c>
+      <c r="AC13" s="11">
+        <f t="shared" si="10"/>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="AD13" s="11">
+        <f t="shared" si="10"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="AF13" s="11">
+        <f>$AE13+($AJ13-$AE13)*(AF$2-$AE$2)/($AJ$2-$AE$2)</f>
+        <v>0.76</v>
+      </c>
+      <c r="AG13" s="11">
+        <f t="shared" ref="AG13:AI13" si="11">$AE13+($AJ13-$AE13)*(AG$2-$AE$2)/($AJ$2-$AE$2)</f>
+        <v>0.82</v>
+      </c>
+      <c r="AH13" s="11">
+        <f t="shared" si="11"/>
+        <v>0.88</v>
+      </c>
+      <c r="AI13" s="11">
+        <f t="shared" si="11"/>
+        <v>0.94</v>
+      </c>
+      <c r="AJ13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="3">
+        <f>$AJ13</f>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" ref="AL13:AO13" si="12">$AJ13</f>
+        <v>1</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AN13" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8178,8 +9026,68 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -8187,7 +9095,7 @@
         <v>584</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="D15" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B15)</f>
@@ -8244,8 +9152,68 @@
       <c r="U15" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -8253,7 +9221,7 @@
         <v>620</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="D16" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B16)</f>
@@ -8267,15 +9235,15 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" ref="G16:I16" si="8">$E16+($J16-$E16)*(G$2-$E$2)/($J$2-$E$2)</f>
+        <f t="shared" ref="G16:I16" si="13">$E16+($J16-$E16)*(G$2-$E$2)/($J$2-$E$2)</f>
         <v>5.2000000000000005E-2</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5.800000000000001E-2</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="J16" s="19">
@@ -8286,19 +9254,19 @@
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="L16" s="11">
-        <f t="shared" ref="L16:O16" si="9">$J16+($P16-$J16)*(L$2-$J$2)/($P$2-$J$2)</f>
+        <f t="shared" ref="L16:O16" si="14">$J16+($P16-$J16)*(L$2-$J$2)/($P$2-$J$2)</f>
         <v>0.08</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="P16" s="18">
@@ -8309,23 +9277,103 @@
         <v>0.1</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" ref="R16:U16" si="10">$P16</f>
+        <f t="shared" ref="R16:AO16" si="15">$P16</f>
         <v>0.1</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="X16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AG16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AH16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AI16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AL16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AN16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+      <c r="AO16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -8387,8 +9435,68 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -8451,8 +9559,68 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -8514,8 +9682,68 @@
       <c r="U19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -8577,8 +9805,68 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -8586,7 +9874,7 @@
         <v>862</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D21" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B21)</f>
@@ -8609,55 +9897,135 @@
         <v>0.4</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" ref="J21:U21" si="11">$H21</f>
+        <f t="shared" ref="J21:AO21" si="16">$H21</f>
         <v>0.4</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AD21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AE21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AF21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AG21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AH21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AI21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AK21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AL21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AM21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AN21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AO21" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -8665,7 +10033,7 @@
         <v>854</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="D22" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B22)</f>
@@ -8712,35 +10080,115 @@
         <v>0.2</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" ref="O22:U22" si="12">$M22</f>
+        <f t="shared" ref="O22:AO22" si="17">$M22</f>
         <v>0.2</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="V22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="X22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AD22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AG22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AN22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="AO22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -8748,7 +10196,7 @@
         <v>822</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D23" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B23)</f>
@@ -8780,43 +10228,123 @@
         <v>0.18000000000000002</v>
       </c>
       <c r="M23" s="34">
-        <f t="shared" ref="M23:U23" si="13">L23+1%</f>
+        <f t="shared" ref="M23:U23" si="18">L23+1%</f>
         <v>0.19000000000000003</v>
       </c>
       <c r="N23" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="O23" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.21000000000000005</v>
       </c>
       <c r="P23" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.22000000000000006</v>
       </c>
       <c r="Q23" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.23000000000000007</v>
       </c>
       <c r="R23" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.24000000000000007</v>
       </c>
       <c r="S23" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.25000000000000006</v>
       </c>
       <c r="T23" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.26000000000000006</v>
       </c>
       <c r="U23" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.27000000000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="34">
+        <f t="shared" ref="V23" si="19">U23+1%</f>
+        <v>0.28000000000000008</v>
+      </c>
+      <c r="W23" s="34">
+        <f t="shared" ref="W23" si="20">V23+1%</f>
+        <v>0.29000000000000009</v>
+      </c>
+      <c r="X23" s="34">
+        <f t="shared" ref="X23" si="21">W23+1%</f>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="Y23" s="34">
+        <f t="shared" ref="Y23" si="22">X23+1%</f>
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="Z23" s="34">
+        <f t="shared" ref="Z23" si="23">Y23+1%</f>
+        <v>0.32000000000000012</v>
+      </c>
+      <c r="AA23" s="34">
+        <f t="shared" ref="AA23" si="24">Z23+1%</f>
+        <v>0.33000000000000013</v>
+      </c>
+      <c r="AB23" s="34">
+        <f t="shared" ref="AB23" si="25">AA23+1%</f>
+        <v>0.34000000000000014</v>
+      </c>
+      <c r="AC23" s="34">
+        <f t="shared" ref="AC23" si="26">AB23+1%</f>
+        <v>0.35000000000000014</v>
+      </c>
+      <c r="AD23" s="34">
+        <f t="shared" ref="AD23" si="27">AC23+1%</f>
+        <v>0.36000000000000015</v>
+      </c>
+      <c r="AE23" s="34">
+        <f t="shared" ref="AE23" si="28">AD23+1%</f>
+        <v>0.37000000000000016</v>
+      </c>
+      <c r="AF23" s="34">
+        <f t="shared" ref="AF23" si="29">AE23+1%</f>
+        <v>0.38000000000000017</v>
+      </c>
+      <c r="AG23" s="34">
+        <f t="shared" ref="AG23" si="30">AF23+1%</f>
+        <v>0.39000000000000018</v>
+      </c>
+      <c r="AH23" s="34">
+        <f t="shared" ref="AH23" si="31">AG23+1%</f>
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="AI23" s="34">
+        <f t="shared" ref="AI23" si="32">AH23+1%</f>
+        <v>0.4100000000000002</v>
+      </c>
+      <c r="AJ23" s="34">
+        <f t="shared" ref="AJ23" si="33">AI23+1%</f>
+        <v>0.42000000000000021</v>
+      </c>
+      <c r="AK23" s="34">
+        <f t="shared" ref="AK23" si="34">AJ23+1%</f>
+        <v>0.43000000000000022</v>
+      </c>
+      <c r="AL23" s="34">
+        <f t="shared" ref="AL23" si="35">AK23+1%</f>
+        <v>0.44000000000000022</v>
+      </c>
+      <c r="AM23" s="34">
+        <f t="shared" ref="AM23" si="36">AL23+1%</f>
+        <v>0.45000000000000023</v>
+      </c>
+      <c r="AN23" s="34">
+        <f t="shared" ref="AN23" si="37">AM23+1%</f>
+        <v>0.46000000000000024</v>
+      </c>
+      <c r="AO23" s="34">
+        <f t="shared" ref="AO23" si="38">AN23+1%</f>
+        <v>0.47000000000000025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -8824,7 +10352,7 @@
         <v>867</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D24" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B24)</f>
@@ -8841,63 +10369,143 @@
         <v>0.1</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ref="H24:U24" si="14">$F24</f>
+        <f t="shared" ref="H24:AO24" si="39">$F24</f>
         <v>0.1</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="39"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="V24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AD24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AE24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AG24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AH24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AI24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AN24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" si="39"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>30</v>
       </c>
@@ -8905,7 +10513,7 @@
         <v>905</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="D25" s="36">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B25)</f>
@@ -8928,11 +10536,11 @@
         <v>0.21834393929278592</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" ref="I25:J25" si="15">$G25+($K25-$G25)*(I$2-$G$2)/($K$2-$G$2)</f>
+        <f t="shared" ref="I25:J25" si="40">$G25+($K25-$G25)*(I$2-$G$2)/($K$2-$G$2)</f>
         <v>0.2304542662347816</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>0.24256459317677728</v>
       </c>
       <c r="K25" s="40">
@@ -8944,15 +10552,15 @@
         <v>0.26014571857492419</v>
       </c>
       <c r="M25" s="11">
-        <f t="shared" ref="M25:O25" si="16">$K25+($P25-$K25)*(M$2-$K$2)/($P$2-$K$2)</f>
+        <f t="shared" ref="M25:O25" si="41">$K25+($P25-$K25)*(M$2-$K$2)/($P$2-$K$2)</f>
         <v>0.26561651703107542</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="41"/>
         <v>0.27108731548722664</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="41"/>
         <v>0.27655811394337787</v>
       </c>
       <c r="P25" s="40">
@@ -8964,23 +10572,103 @@
         <v>0.2820289123995291</v>
       </c>
       <c r="R25" s="37">
-        <f t="shared" ref="R25:U25" si="17">$P25</f>
+        <f t="shared" ref="R25:AO25" si="42">$P25</f>
         <v>0.2820289123995291</v>
       </c>
       <c r="S25" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>0.2820289123995291</v>
       </c>
       <c r="T25" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>0.2820289123995291</v>
       </c>
       <c r="U25" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>0.2820289123995291</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="W25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="X25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="Y25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="Z25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AA25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AB25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AC25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AD25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AE25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AF25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AG25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AH25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AI25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AJ25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AK25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AL25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AM25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AN25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+      <c r="AO25" s="37">
+        <f t="shared" si="42"/>
+        <v>0.2820289123995291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -9042,8 +10730,68 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -9051,14 +10799,14 @@
         <v>1012</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="D27" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B27)</f>
         <v>83878397</v>
       </c>
       <c r="E27" s="29">
-        <f>0.05*'Extra State Data'!$B$34/'Extra State Data'!$B$35</f>
+        <f>0.05*'Extra State Data'!$B$35/'Extra State Data'!$B$36</f>
         <v>3.5174010414111036E-2</v>
       </c>
       <c r="F27" s="11">
@@ -9066,15 +10814,15 @@
         <v>4.3967513017638793E-2</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" ref="G27:H27" si="18">$E27+($I27-$E27)*(G$2-$E$2)/($I$2-$E$2)</f>
+        <f t="shared" ref="G27:H27" si="43">$E27+($I27-$E27)*(G$2-$E$2)/($I$2-$E$2)</f>
         <v>5.2761015621166557E-2</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>6.1554518224694314E-2</v>
       </c>
       <c r="I27" s="29">
-        <f>0.1*'Extra State Data'!$B$34/'Extra State Data'!$B$35</f>
+        <f>0.1*'Extra State Data'!$B$35/'Extra State Data'!$B$36</f>
         <v>7.0348020828222071E-2</v>
       </c>
       <c r="J27" s="11">
@@ -9082,15 +10830,15 @@
         <v>7.9141523431749822E-2</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" ref="K27:L27" si="19">$I27+($M27-$I27)*(K$2-$I$2)/($M$2-$I$2)</f>
+        <f t="shared" ref="K27:L27" si="44">$I27+($M27-$I27)*(K$2-$I$2)/($M$2-$I$2)</f>
         <v>8.7935026035277586E-2</v>
       </c>
       <c r="L27" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="44"/>
         <v>9.672852863880535E-2</v>
       </c>
       <c r="M27" s="29">
-        <f>0.15*'Extra State Data'!$B$34/'Extra State Data'!$B$35</f>
+        <f>0.15*'Extra State Data'!$B$35/'Extra State Data'!$B$36</f>
         <v>0.1055220312423331</v>
       </c>
       <c r="N27" s="45">
@@ -9098,35 +10846,115 @@
         <v>0.1055220312423331</v>
       </c>
       <c r="O27" s="45">
-        <f t="shared" ref="O27:U27" si="20">$M27</f>
+        <f t="shared" ref="O27:AO27" si="45">$M27</f>
         <v>0.1055220312423331</v>
       </c>
       <c r="P27" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>0.1055220312423331</v>
       </c>
       <c r="Q27" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>0.1055220312423331</v>
       </c>
       <c r="R27" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>0.1055220312423331</v>
       </c>
       <c r="S27" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>0.1055220312423331</v>
       </c>
       <c r="T27" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>0.1055220312423331</v>
       </c>
       <c r="U27" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>0.1055220312423331</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="W27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="X27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="Y27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="Z27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AA27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AB27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AC27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AD27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AE27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AF27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AG27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AH27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AI27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AJ27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AK27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AL27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AM27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AN27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+      <c r="AO27" s="45">
+        <f t="shared" si="45"/>
+        <v>0.1055220312423331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -9134,7 +10962,7 @@
         <v>1124</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="D28" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B28)</f>
@@ -9152,63 +10980,143 @@
         <v>0.15</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:U28" si="21">$F28</f>
+        <f t="shared" ref="H28:AO28" si="46">$F28</f>
         <v>0.15</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="46"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="X28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="Y28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AA28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AB28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AC28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AD28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AE28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AF28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AH28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AI28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AK28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AL28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AM28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AN28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+      <c r="AO28" s="3">
+        <f t="shared" si="46"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -9270,8 +11178,68 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -9279,18 +11247,18 @@
         <v>1347</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="D30" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B30)</f>
         <v>32911493</v>
       </c>
       <c r="E30" s="32">
-        <f>0.18*'Extra State Data'!$B$39/'Extra State Data'!$B$40+(0.5*(F30-0.18*'Extra State Data'!$B$39/'Extra State Data'!$B$40))</f>
+        <f>0.18*'Extra State Data'!$B$40/'Extra State Data'!$B$41+(0.5*(F30-0.18*'Extra State Data'!$B$40/'Extra State Data'!$B$41))</f>
         <v>0.16941515075653035</v>
       </c>
       <c r="F30" s="32">
-        <f>0.2*'Extra State Data'!$B$39/'Extra State Data'!$B$40</f>
+        <f>0.2*'Extra State Data'!$B$40/'Extra State Data'!$B$41</f>
         <v>0.178331737638453</v>
       </c>
       <c r="G30" s="11">
@@ -9298,19 +11266,19 @@
         <v>0.18189837239122206</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" ref="H30:J30" si="22">$F30+($K30-$F30)*(H$2-$F$2)/($K$2-$F$2)</f>
+        <f t="shared" ref="H30:J30" si="47">$F30+($K30-$F30)*(H$2-$F$2)/($K$2-$F$2)</f>
         <v>0.18546500714399111</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0.18903164189676019</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0.19259827664952925</v>
       </c>
       <c r="K30" s="32">
-        <f>0.22*'Extra State Data'!$B$39/'Extra State Data'!$B$40</f>
+        <f>0.22*'Extra State Data'!$B$40/'Extra State Data'!$B$41</f>
         <v>0.1961649114022983</v>
       </c>
       <c r="L30" s="11">
@@ -9318,19 +11286,19 @@
         <v>0.2015148635314519</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" ref="M30:O30" si="23">$K30+($P30-$K30)*(M$2-$K$2)/($P$2-$K$2)</f>
+        <f t="shared" ref="M30:O30" si="48">$K30+($P30-$K30)*(M$2-$K$2)/($P$2-$K$2)</f>
         <v>0.20686481566060547</v>
       </c>
       <c r="N30" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>0.21221476778975906</v>
       </c>
       <c r="O30" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>0.21756471991891263</v>
       </c>
       <c r="P30" s="32">
-        <f>0.25*'Extra State Data'!$B$39/'Extra State Data'!$B$40</f>
+        <f>0.25*'Extra State Data'!$B$40/'Extra State Data'!$B$41</f>
         <v>0.22291467204806623</v>
       </c>
       <c r="Q30" s="47">
@@ -9338,23 +11306,103 @@
         <v>0.22291467204806623</v>
       </c>
       <c r="R30" s="47">
-        <f t="shared" ref="R30:U30" si="24">$P30</f>
+        <f t="shared" ref="R30:AO30" si="49">$P30</f>
         <v>0.22291467204806623</v>
       </c>
       <c r="S30" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>0.22291467204806623</v>
       </c>
       <c r="T30" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>0.22291467204806623</v>
       </c>
       <c r="U30" s="47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>0.22291467204806623</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="V30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="W30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="X30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="Y30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="Z30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AA30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AB30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AC30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AD30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AE30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AF30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AG30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AH30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AI30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AJ30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AK30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AL30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AM30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AN30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+      <c r="AO30" s="47">
+        <f t="shared" si="49"/>
+        <v>0.22291467204806623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -9362,58 +11410,58 @@
         <v>1313</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="D31" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B31)</f>
         <v>5935176</v>
       </c>
       <c r="E31" s="33">
-        <f>(0.05+0.003+0.03)*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.05+0.003+0.03)*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>7.2726637202784897E-2</v>
       </c>
       <c r="F31" s="33">
-        <f>(0.06+0.003+0.08)*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08)*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.12530010987949688</v>
       </c>
       <c r="G31" s="32">
-        <f>(0.06+0.003+0.08+0.009*(G2-$F$2))*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08+0.009*(G2-$F$2))*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.13318613078100369</v>
       </c>
       <c r="H31" s="32">
-        <f>(0.06+0.003+0.08+0.009*(H2-$F$2))*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08+0.009*(H2-$F$2))*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.14107215168251047</v>
       </c>
       <c r="I31" s="32">
-        <f>(0.06+0.003+0.08+0.009*(I2-$F$2))*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08+0.009*(I2-$F$2))*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.14895817258401728</v>
       </c>
       <c r="J31" s="32">
-        <f>(0.06+0.003+0.08+0.009*(J2-$F$2))*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08+0.009*(J2-$F$2))*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.15684419348552409</v>
       </c>
       <c r="K31" s="32">
-        <f>(0.06+0.003+0.08+0.009*(K2-$F$2))*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08+0.009*(K2-$F$2))*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.16473021438703087</v>
       </c>
       <c r="L31" s="32">
-        <f>(0.06+0.003+0.08+0.009*(L2-$F$2))*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08+0.009*(L2-$F$2))*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.17261623528853767</v>
       </c>
       <c r="M31" s="32">
-        <f>(0.06+0.003+0.08+0.009*(M2-$F$2))*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08+0.009*(M2-$F$2))*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.18050225619004445</v>
       </c>
       <c r="N31" s="32">
-        <f>(0.06+0.003+0.08+0.009*(N2-$F$2))*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08+0.009*(N2-$F$2))*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.18838827709155126</v>
       </c>
       <c r="O31" s="32">
-        <f>(0.06+0.003+0.08+0.009*(O2-$F$2))*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.06+0.003+0.08+0.009*(O2-$F$2))*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.19627429799305801</v>
       </c>
       <c r="P31" s="32">
-        <f>(0.15+0.003+0.08)*'Extra State Data'!$B$44/'Extra State Data'!$B$45</f>
+        <f>(0.15+0.003+0.08)*'Extra State Data'!$B$45/'Extra State Data'!$B$46</f>
         <v>0.20416031889456482</v>
       </c>
       <c r="Q31" s="47">
@@ -9421,23 +11469,103 @@
         <v>0.20416031889456482</v>
       </c>
       <c r="R31" s="47">
-        <f t="shared" ref="R31:U31" si="25">$P31</f>
+        <f t="shared" ref="R31:AO31" si="50">$P31</f>
         <v>0.20416031889456482</v>
       </c>
       <c r="S31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>0.20416031889456482</v>
       </c>
       <c r="T31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>0.20416031889456482</v>
       </c>
       <c r="U31" s="47">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>0.20416031889456482</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="W31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="X31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="Y31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="Z31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AA31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AB31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AC31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AD31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AE31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AF31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AG31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AH31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AI31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AJ31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AK31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AL31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AM31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AN31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+      <c r="AO31" s="47">
+        <f t="shared" si="50"/>
+        <v>0.20416031889456482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -9445,7 +11573,7 @@
         <v>1318</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="D32" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B32)</f>
@@ -9519,8 +11647,88 @@
         <f>$S32</f>
         <v>0.24479999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="V32" s="47">
+        <f t="shared" ref="V32:AO32" si="51">$S32</f>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="W32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="X32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="Y32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="Z32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AA32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AB32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AC32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AD32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AE32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AF32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AG32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AH32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AI32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AJ32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AK32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AL32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AM32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AN32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+      <c r="AO32" s="47">
+        <f t="shared" si="51"/>
+        <v>0.24479999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -9528,7 +11736,7 @@
         <v>61</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="D33" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B33)</f>
@@ -9546,15 +11754,15 @@
         <v>0.12196423182684196</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" ref="H33:J33" si="26">$F33+($K33-$F33)*(H$2-$F$2)/($K$2-$F$2)</f>
+        <f t="shared" ref="H33:J33" si="52">$F33+($K33-$F33)*(H$2-$F$2)/($K$2-$F$2)</f>
         <v>0.13096600507556777</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>0.13996777832429361</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>0.14896955157301944</v>
       </c>
       <c r="K33" s="29">
@@ -9566,43 +11774,123 @@
         <v>0.15797132482174525</v>
       </c>
       <c r="M33" s="11">
-        <f t="shared" ref="M33:U33" si="27">$K33</f>
+        <f t="shared" ref="M33:AO33" si="53">$K33</f>
         <v>0.15797132482174525</v>
       </c>
       <c r="N33" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>0.15797132482174525</v>
       </c>
       <c r="O33" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>0.15797132482174525</v>
       </c>
       <c r="P33" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>0.15797132482174525</v>
       </c>
       <c r="Q33" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>0.15797132482174525</v>
       </c>
       <c r="R33" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>0.15797132482174525</v>
       </c>
       <c r="S33" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>0.15797132482174525</v>
       </c>
       <c r="T33" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>0.15797132482174525</v>
       </c>
       <c r="U33" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>0.15797132482174525</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="W33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="X33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="Y33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AA33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AB33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AC33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AD33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AE33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AF33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AG33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AH33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AI33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AJ33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AK33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AL33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AM33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AN33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+      <c r="AO33" s="11">
+        <f t="shared" si="53"/>
+        <v>0.15797132482174525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -9627,62 +11915,142 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" ref="H34:T34" si="28">$F34+($U34-$F34)*(H$2-$F$2)/($U$2-$F$2)</f>
+        <f t="shared" ref="H34:T34" si="54">$F34+($U34-$F34)*(H$2-$F$2)/($U$2-$F$2)</f>
         <v>0.318</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.33199999999999996</v>
       </c>
       <c r="J34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.34599999999999997</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.36</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.374</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.38800000000000001</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.40200000000000002</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.41599999999999998</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.43</v>
       </c>
       <c r="Q34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.44399999999999995</v>
       </c>
       <c r="R34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.45800000000000002</v>
       </c>
       <c r="S34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.47199999999999998</v>
       </c>
       <c r="T34" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>0.48599999999999999</v>
       </c>
       <c r="U34" s="18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V34" s="3">
+        <f>$U34</f>
+        <v>0.5</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" ref="W34:AO34" si="55">$U34</f>
+        <v>0.5</v>
+      </c>
+      <c r="X34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AL34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AM34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO34" s="3">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -9690,7 +12058,7 @@
         <v>1153</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="D35" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B35)</f>
@@ -9733,39 +12101,119 @@
         <v>0.1207489559263529</v>
       </c>
       <c r="N35" s="11">
-        <f t="shared" ref="N35:U35" si="29">$L35</f>
+        <f t="shared" ref="N35:AO35" si="56">$L35</f>
         <v>0.1207489559263529</v>
       </c>
       <c r="O35" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.1207489559263529</v>
       </c>
       <c r="P35" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.1207489559263529</v>
       </c>
       <c r="Q35" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.1207489559263529</v>
       </c>
       <c r="R35" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.1207489559263529</v>
       </c>
       <c r="S35" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.1207489559263529</v>
       </c>
       <c r="T35" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.1207489559263529</v>
       </c>
       <c r="U35" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="56"/>
         <v>0.1207489559263529</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="W35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="X35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="Y35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="Z35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AA35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AB35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AC35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AD35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AE35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AF35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AG35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AH35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AI35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AJ35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AK35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AL35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AM35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AN35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+      <c r="AO35" s="11">
+        <f t="shared" si="56"/>
+        <v>0.1207489559263529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -9828,8 +12276,68 @@
       <c r="U36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -9837,62 +12345,62 @@
         <v>1379</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="D37" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B37)</f>
         <v>53328386</v>
       </c>
       <c r="E37" s="32">
-        <f>0.025*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.025*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>1.7005552615977738E-2</v>
       </c>
       <c r="F37" s="32">
-        <f>0.025*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.025*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>1.7005552615977738E-2</v>
       </c>
       <c r="G37" s="32">
-        <f>0.025*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.025*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>1.7005552615977738E-2</v>
       </c>
       <c r="H37" s="32">
-        <f>0.035*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.035*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>2.3807773662368834E-2</v>
       </c>
       <c r="I37" s="32">
-        <f>0.045*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.045*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>3.0609994708759927E-2</v>
       </c>
       <c r="J37" s="32">
-        <f>0.055*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.055*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>3.7412215755151024E-2</v>
       </c>
       <c r="K37" s="32">
-        <f>0.065*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.065*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>4.421443680154212E-2</v>
       </c>
       <c r="L37" s="32">
-        <f>0.075*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.075*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>5.101665784793321E-2</v>
       </c>
       <c r="M37" s="32">
-        <f>0.085*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.085*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>5.7818878894324313E-2</v>
       </c>
       <c r="N37" s="32">
-        <f>0.095*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.095*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>6.4621099940715396E-2</v>
       </c>
       <c r="O37" s="32">
-        <f>0.105*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.105*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>7.1423320987106492E-2</v>
       </c>
       <c r="P37" s="32">
-        <f>0.115*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.115*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>7.8225542033497589E-2</v>
       </c>
       <c r="Q37" s="32">
-        <f>0.125*'Extra State Data'!$B$49/'Extra State Data'!$B$50</f>
+        <f>0.125*'Extra State Data'!$B$50/'Extra State Data'!$B$51</f>
         <v>8.5027763079888685E-2</v>
       </c>
       <c r="R37" s="11">
@@ -9900,19 +12408,99 @@
         <v>8.5027763079888685E-2</v>
       </c>
       <c r="S37" s="11">
-        <f t="shared" ref="S37:U37" si="30">$Q37</f>
+        <f t="shared" ref="S37:AO37" si="57">$Q37</f>
         <v>8.5027763079888685E-2</v>
       </c>
       <c r="T37" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>8.5027763079888685E-2</v>
       </c>
       <c r="U37" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="57"/>
         <v>8.5027763079888685E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="W37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="X37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="Y37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="Z37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AA37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AB37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AC37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AD37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AE37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AF37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AG37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AH37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AI37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AJ37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AK37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AL37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AM37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AN37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+      <c r="AO37" s="11">
+        <f t="shared" si="57"/>
+        <v>8.5027763079888685E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -9975,8 +12563,68 @@
       <c r="U38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="V38" s="3">
+        <v>0</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -9984,7 +12632,7 @@
         <v>1478</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="D39" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B39)</f>
@@ -9992,74 +12640,154 @@
       </c>
       <c r="E39" s="33">
         <f>((0.15*'Extra State Data'!$B$26/'Extra State Data'!$B$23)-(0.05*'Extra State Data'!$B$26/'Extra State Data'!$B$23))*(3/4)+(0.05*'Extra State Data'!$B$26/'Extra State Data'!$B$23)</f>
-        <v>9.0393487403685885E-2</v>
+        <v>8.3974114079353179E-2</v>
       </c>
       <c r="F39" s="32">
         <f>0.15*'Extra State Data'!$B$26/'Extra State Data'!$B$23</f>
-        <v>0.10847218488442306</v>
+        <v>0.10076893689522382</v>
       </c>
       <c r="G39" s="11">
         <f>$F39+($K39-$F39)*(G$2-$F$2)/($K$2-$F$2)</f>
-        <v>0.11570366387671793</v>
+        <v>0.10748686602157208</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" ref="H39:J39" si="31">$F39+($K39-$F39)*(H$2-$F$2)/($K$2-$F$2)</f>
-        <v>0.1229351428690128</v>
+        <f t="shared" ref="H39:J39" si="58">$F39+($K39-$F39)*(H$2-$F$2)/($K$2-$F$2)</f>
+        <v>0.11420479514792034</v>
       </c>
       <c r="I39" s="11">
-        <f t="shared" si="31"/>
-        <v>0.13016662186130767</v>
+        <f t="shared" si="58"/>
+        <v>0.12092272427426859</v>
       </c>
       <c r="J39" s="11">
-        <f t="shared" si="31"/>
-        <v>0.13739810085360254</v>
+        <f t="shared" si="58"/>
+        <v>0.12764065340061687</v>
       </c>
       <c r="K39" s="32">
         <f>0.2*'Extra State Data'!$B$26/'Extra State Data'!$B$23</f>
-        <v>0.14462957984589742</v>
+        <v>0.13435858252696511</v>
       </c>
       <c r="L39" s="11">
         <f>$K39+($P39-$K39)*(L$2-$K$2)/($P$2-$K$2)</f>
-        <v>0.15573953681296954</v>
+        <v>0.1475227389578237</v>
       </c>
       <c r="M39" s="11">
-        <f t="shared" ref="M39:O39" si="32">$K39+($P39-$K39)*(M$2-$K$2)/($P$2-$K$2)</f>
-        <v>0.16684949378004166</v>
+        <f t="shared" ref="M39:O39" si="59">$K39+($P39-$K39)*(M$2-$K$2)/($P$2-$K$2)</f>
+        <v>0.16068689538868228</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="32"/>
-        <v>0.17795945074711378</v>
+        <f t="shared" si="59"/>
+        <v>0.17385105181954086</v>
       </c>
       <c r="O39" s="11">
-        <f t="shared" si="32"/>
-        <v>0.18906940771418593</v>
+        <f t="shared" si="59"/>
+        <v>0.18701520825039947</v>
       </c>
       <c r="P39" s="29">
-        <f>(0.25*'Extra State Data'!B26+0.1*'Extra State Data'!B27+0.05*'Extra State Data'!B28)/SUM('Extra State Data'!B26:B28)</f>
+        <f>(0.25*'Extra State Data'!B26+0.25*'Extra State Data'!B27+0.1*'Extra State Data'!B28+0.05*'Extra State Data'!B29)/'Extra State Data'!$B$23</f>
         <v>0.20017936468125805</v>
       </c>
       <c r="Q39" s="11">
-        <f>$P39</f>
-        <v>0.20017936468125805</v>
+        <f>$P39+($U39-$P39)*(Q$2-$P$2)/($U$2-$P$2)</f>
+        <v>0.21361522293395455</v>
       </c>
       <c r="R39" s="11">
-        <f t="shared" ref="R39:U39" si="33">$P39</f>
-        <v>0.20017936468125805</v>
+        <f t="shared" ref="R39:T39" si="60">$P39+($U39-$P39)*(R$2-$P$2)/($U$2-$P$2)</f>
+        <v>0.22705108118665104</v>
       </c>
       <c r="S39" s="11">
-        <f t="shared" si="33"/>
-        <v>0.20017936468125805</v>
+        <f t="shared" si="60"/>
+        <v>0.24048693943934757</v>
       </c>
       <c r="T39" s="11">
-        <f t="shared" si="33"/>
-        <v>0.20017936468125805</v>
-      </c>
-      <c r="U39" s="11">
-        <f t="shared" si="33"/>
-        <v>0.20017936468125805</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v>0.25392279769204407</v>
+      </c>
+      <c r="U39" s="32">
+        <f>(0.35*'Extra State Data'!B26+0.25*'Extra State Data'!B27+0.1*'Extra State Data'!B28+0.05*'Extra State Data'!B29)/'Extra State Data'!$B$23</f>
+        <v>0.26735865594474056</v>
+      </c>
+      <c r="V39" s="11">
+        <f>$U39+($Z39-$U39)*(V$2-$U$2)/($Z$2-$U$2)</f>
+        <v>0.28079451419743706</v>
+      </c>
+      <c r="W39" s="11">
+        <f t="shared" ref="W39:Y39" si="61">$U39+($Z39-$U39)*(W$2-$U$2)/($Z$2-$U$2)</f>
+        <v>0.29423037245013361</v>
+      </c>
+      <c r="X39" s="11">
+        <f t="shared" si="61"/>
+        <v>0.30766623070283011</v>
+      </c>
+      <c r="Y39" s="11">
+        <f t="shared" si="61"/>
+        <v>0.32110208895552667</v>
+      </c>
+      <c r="Z39" s="29">
+        <f>(0.45*'Extra State Data'!B26+0.25*'Extra State Data'!B27+0.1*'Extra State Data'!B28+0.05*'Extra State Data'!B29)/'Extra State Data'!$B$23</f>
+        <v>0.33453794720822316</v>
+      </c>
+      <c r="AA39" s="11">
+        <f>$Z39+($AE39-$Z39)*(AA$2-$Z$2)/($AE$2-$Z$2)</f>
+        <v>0.34125587633457144</v>
+      </c>
+      <c r="AB39" s="11">
+        <f t="shared" ref="AB39:AD39" si="62">$Z39+($AE39-$Z39)*(AB$2-$Z$2)/($AE$2-$Z$2)</f>
+        <v>0.34797380546091966</v>
+      </c>
+      <c r="AC39" s="11">
+        <f t="shared" si="62"/>
+        <v>0.35469173458726794</v>
+      </c>
+      <c r="AD39" s="11">
+        <f t="shared" si="62"/>
+        <v>0.36140966371361616</v>
+      </c>
+      <c r="AE39" s="29">
+        <f>(0.5*'Extra State Data'!B26+0.25*'Extra State Data'!B27+0.1*'Extra State Data'!B28+0.05*'Extra State Data'!B29)/'Extra State Data'!$B$23</f>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AF39" s="11">
+        <f>$AE39</f>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AG39" s="11">
+        <f t="shared" ref="AG39:AO39" si="63">$AE39</f>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AH39" s="11">
+        <f t="shared" si="63"/>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AI39" s="11">
+        <f t="shared" si="63"/>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AJ39" s="11">
+        <f t="shared" si="63"/>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AK39" s="11">
+        <f t="shared" si="63"/>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AL39" s="11">
+        <f t="shared" si="63"/>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AM39" s="11">
+        <f t="shared" si="63"/>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AN39" s="11">
+        <f t="shared" si="63"/>
+        <v>0.36812759283996443</v>
+      </c>
+      <c r="AO39" s="11">
+        <f t="shared" si="63"/>
+        <v>0.36812759283996443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -10067,7 +12795,7 @@
         <v>1511</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="D40" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B40)</f>
@@ -10109,39 +12837,119 @@
         <v>0.18</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" ref="N40:U40" si="34">$L40</f>
+        <f t="shared" ref="N40:AO40" si="64">$L40</f>
         <v>0.18</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>0.18</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>0.18</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>0.18</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>0.18</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>0.18</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>0.18</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="64"/>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="W40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="X40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="Y40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="Z40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AA40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AB40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AC40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AD40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AE40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AF40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AG40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AH40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AI40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AJ40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AK40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AL40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AM40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AN40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+      <c r="AO40" s="3">
+        <f t="shared" si="64"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -10149,7 +12957,7 @@
         <v>1536</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="D41" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B41)</f>
@@ -10163,67 +12971,147 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G41" s="19">
-        <f t="shared" ref="G41:K41" si="35">F41+0.015</f>
+        <f t="shared" ref="G41:K41" si="65">F41+0.015</f>
         <v>0.1</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="65"/>
         <v>0.115</v>
       </c>
       <c r="I41" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="65"/>
         <v>0.13</v>
       </c>
       <c r="J41" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="65"/>
         <v>0.14500000000000002</v>
       </c>
       <c r="K41" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="65"/>
         <v>0.16000000000000003</v>
       </c>
-      <c r="L41" s="11">
-        <f>$K41</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="M41" s="11">
-        <f t="shared" ref="M41:U41" si="36">$K41</f>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="N41" s="11">
-        <f t="shared" si="36"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="O41" s="11">
-        <f t="shared" si="36"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="P41" s="11">
-        <f t="shared" si="36"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="Q41" s="11">
-        <f t="shared" si="36"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="R41" s="11">
-        <f t="shared" si="36"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="S41" s="11">
-        <f t="shared" si="36"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="T41" s="11">
-        <f t="shared" si="36"/>
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="U41" s="11">
-        <f t="shared" si="36"/>
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L41" s="19">
+        <f t="shared" ref="L41" si="66">K41+0.015</f>
+        <v>0.17500000000000004</v>
+      </c>
+      <c r="M41" s="19">
+        <f t="shared" ref="M41" si="67">L41+0.015</f>
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="N41" s="19">
+        <f t="shared" ref="N41" si="68">M41+0.015</f>
+        <v>0.20500000000000007</v>
+      </c>
+      <c r="O41" s="19">
+        <f t="shared" ref="O41" si="69">N41+0.015</f>
+        <v>0.22000000000000008</v>
+      </c>
+      <c r="P41" s="19">
+        <f t="shared" ref="P41" si="70">O41+0.015</f>
+        <v>0.2350000000000001</v>
+      </c>
+      <c r="Q41" s="19">
+        <f t="shared" ref="Q41" si="71">P41+0.015</f>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="R41" s="19">
+        <f t="shared" ref="R41" si="72">Q41+0.015</f>
+        <v>0.26500000000000012</v>
+      </c>
+      <c r="S41" s="19">
+        <f t="shared" ref="S41" si="73">R41+0.015</f>
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="T41" s="19">
+        <f t="shared" ref="T41" si="74">S41+0.015</f>
+        <v>0.29500000000000015</v>
+      </c>
+      <c r="U41" s="19">
+        <f t="shared" ref="U41" si="75">T41+0.015</f>
+        <v>0.31000000000000016</v>
+      </c>
+      <c r="V41" s="19">
+        <f t="shared" ref="V41" si="76">U41+0.015</f>
+        <v>0.32500000000000018</v>
+      </c>
+      <c r="W41" s="19">
+        <f t="shared" ref="W41" si="77">V41+0.015</f>
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="X41" s="19">
+        <f t="shared" ref="X41" si="78">W41+0.015</f>
+        <v>0.3550000000000002</v>
+      </c>
+      <c r="Y41" s="19">
+        <f t="shared" ref="Y41" si="79">X41+0.015</f>
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="Z41" s="19">
+        <f t="shared" ref="Z41" si="80">Y41+0.015</f>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AA41" s="11">
+        <f>$Z41</f>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AB41" s="11">
+        <f t="shared" ref="AB41:AO41" si="81">$Z41</f>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AC41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AD41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AE41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AF41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AG41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AH41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AI41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AJ41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AK41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AL41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AM41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AN41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+      <c r="AO41" s="11">
+        <f t="shared" si="81"/>
+        <v>0.38500000000000023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -10286,8 +13174,68 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -10350,8 +13298,68 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -10413,8 +13421,68 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -10432,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="29">
-        <f>5580/'Extra State Data'!B31</f>
+        <f>5580/'Extra State Data'!B32</f>
         <v>5.0919842312746384E-2</v>
       </c>
       <c r="G45" s="11">
@@ -10440,39 +13508,39 @@
         <v>5.4953277850781135E-2</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" ref="H45:O45" si="37">$F45+($P45-$F45)*(H$2-$F$2)/($P$2-$F$2)</f>
+        <f t="shared" ref="H45:O45" si="82">$F45+($P45-$F45)*(H$2-$F$2)/($P$2-$F$2)</f>
         <v>5.8986713388815885E-2</v>
       </c>
       <c r="I45" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="82"/>
         <v>6.3020148926850636E-2</v>
       </c>
       <c r="J45" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="82"/>
         <v>6.705358446488538E-2</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="82"/>
         <v>7.1087020002920137E-2</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="82"/>
         <v>7.5120455540954881E-2</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="82"/>
         <v>7.9153891078989624E-2</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="82"/>
         <v>8.3187326617024382E-2</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="82"/>
         <v>8.7220762155059139E-2</v>
       </c>
       <c r="P45" s="29">
-        <f>10000/'Extra State Data'!B31</f>
+        <f>10000/'Extra State Data'!B32</f>
         <v>9.1254197693093883E-2</v>
       </c>
       <c r="Q45" s="11">
@@ -10480,23 +13548,103 @@
         <v>9.1254197693093883E-2</v>
       </c>
       <c r="R45" s="11">
-        <f t="shared" ref="R45:U45" si="38">$P45</f>
+        <f t="shared" ref="R45:AO45" si="83">$P45</f>
         <v>9.1254197693093883E-2</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="83"/>
         <v>9.1254197693093883E-2</v>
       </c>
       <c r="T45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="83"/>
         <v>9.1254197693093883E-2</v>
       </c>
       <c r="U45" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="83"/>
         <v>9.1254197693093883E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="W45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="X45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="Y45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="Z45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AA45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AB45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AC45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AD45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AE45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AF45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AG45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AH45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AI45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AJ45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AK45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AL45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AM45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AN45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+      <c r="AO45" s="11">
+        <f t="shared" si="83"/>
+        <v>9.1254197693093883E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -10559,8 +13707,68 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -10591,58 +13799,134 @@
         <v>0.56333333333333335</v>
       </c>
       <c r="J47" s="11">
-        <f t="shared" ref="J47:U47" si="39">$H47+($W47-$H47)*(J$2-$H$2)/($W$2-$H$2)</f>
+        <f t="shared" ref="J47:V47" si="84">$H47+($W47-$H47)*(J$2-$H$2)/($W$2-$H$2)</f>
         <v>0.57666666666666666</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.59000000000000008</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.60333333333333339</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.6166666666666667</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.63</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.64333333333333331</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.65666666666666673</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.67</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.68333333333333335</v>
       </c>
       <c r="S47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.69666666666666666</v>
       </c>
       <c r="T47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.71</v>
       </c>
       <c r="U47" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="84"/>
         <v>0.72333333333333338</v>
+      </c>
+      <c r="V47" s="11">
+        <f t="shared" si="84"/>
+        <v>0.73666666666666669</v>
       </c>
       <c r="W47" s="18">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="3">
+        <f>$W47</f>
+        <v>0.75</v>
+      </c>
+      <c r="Y47" s="3">
+        <f t="shared" ref="Y47:AO47" si="85">$W47</f>
+        <v>0.75</v>
+      </c>
+      <c r="Z47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AA47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AC47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AD47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AE47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AF47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AG47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AH47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AI47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AJ47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AK47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AL47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AM47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AN47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+      <c r="AO47" s="3">
+        <f t="shared" si="85"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -10705,8 +13989,68 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -10714,14 +14058,14 @@
         <v>1907</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D49" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B49)</f>
         <v>90021490</v>
       </c>
       <c r="E49" s="19">
-        <f>(0.03*2)*'Extra State Data'!$B$54/'Extra State Data'!$B$55</f>
+        <f>(0.03*2)*'Extra State Data'!$B$55/'Extra State Data'!$B$56</f>
         <v>4.8540666214706624E-2</v>
       </c>
       <c r="F49" s="11">
@@ -10729,7 +14073,7 @@
         <v>6.067583276838328E-2</v>
       </c>
       <c r="G49" s="19">
-        <f>0.09*'Extra State Data'!$B$54/'Extra State Data'!$B$55</f>
+        <f>0.09*'Extra State Data'!$B$55/'Extra State Data'!$B$56</f>
         <v>7.2810999322059936E-2</v>
       </c>
       <c r="H49" s="11">
@@ -10737,15 +14081,15 @@
         <v>8.4946165875736585E-2</v>
       </c>
       <c r="I49" s="11">
-        <f t="shared" ref="I49:J49" si="40">$G49+($K49-$G49)*(I$2-$G$2)/($K$2-$G$2)</f>
+        <f t="shared" ref="I49:J49" si="86">$G49+($K49-$G49)*(I$2-$G$2)/($K$2-$G$2)</f>
         <v>9.7081332429413247E-2</v>
       </c>
       <c r="J49" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="86"/>
         <v>0.10921649898308991</v>
       </c>
       <c r="K49" s="19">
-        <f>0.15*'Extra State Data'!$B$54/'Extra State Data'!$B$55</f>
+        <f>0.15*'Extra State Data'!$B$55/'Extra State Data'!$B$56</f>
         <v>0.12135166553676656</v>
       </c>
       <c r="L49" s="46">
@@ -10753,43 +14097,123 @@
         <v>0.12135166553676656</v>
       </c>
       <c r="M49" s="46">
-        <f t="shared" ref="M49:U49" si="41">$K49</f>
+        <f t="shared" ref="M49:AO49" si="87">$K49</f>
         <v>0.12135166553676656</v>
       </c>
       <c r="N49" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="87"/>
         <v>0.12135166553676656</v>
       </c>
       <c r="O49" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="87"/>
         <v>0.12135166553676656</v>
       </c>
       <c r="P49" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="87"/>
         <v>0.12135166553676656</v>
       </c>
       <c r="Q49" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="87"/>
         <v>0.12135166553676656</v>
       </c>
       <c r="R49" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="87"/>
         <v>0.12135166553676656</v>
       </c>
       <c r="S49" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="87"/>
         <v>0.12135166553676656</v>
       </c>
       <c r="T49" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="87"/>
         <v>0.12135166553676656</v>
       </c>
       <c r="U49" s="46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="87"/>
         <v>0.12135166553676656</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="W49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="X49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="Y49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="Z49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AA49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AB49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AC49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AD49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AE49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AF49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AG49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AH49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AI49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AJ49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AK49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AL49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AM49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AN49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+      <c r="AO49" s="46">
+        <f t="shared" si="87"/>
+        <v>0.12135166553676656</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -10851,8 +14275,68 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -10877,63 +14361,143 @@
         <v>0.1</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" ref="H51:U51" si="42">$F51</f>
+        <f t="shared" ref="H51:AO51" si="88">$F51</f>
         <v>0.1</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="Q51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="R51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="S51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="T51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
       <c r="U51" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="88"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="W51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="X51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AC51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AD51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AE51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AG51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AH51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AI51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AJ51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AK51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AL51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AM51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AN51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+      <c r="AO51" s="3">
+        <f t="shared" si="88"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -10995,8 +14559,68 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -11004,7 +14628,7 @@
         <v>336</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>2077</v>
+        <v>2125</v>
       </c>
       <c r="D53" s="22">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,B53)</f>
@@ -11031,45 +14655,113 @@
       <c r="K53" s="18">
         <v>0.2</v>
       </c>
-      <c r="L53" s="3">
-        <f>$K53</f>
+      <c r="L53" s="18">
         <v>0.2</v>
       </c>
-      <c r="M53" s="3">
-        <f t="shared" ref="M53:U53" si="43">$K53</f>
+      <c r="M53" s="18">
         <v>0.2</v>
       </c>
-      <c r="N53" s="3">
-        <f t="shared" si="43"/>
+      <c r="N53" s="18">
         <v>0.2</v>
       </c>
-      <c r="O53" s="3">
-        <f t="shared" si="43"/>
-        <v>0.2</v>
-      </c>
-      <c r="P53" s="3">
-        <f t="shared" si="43"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q53" s="3">
-        <f t="shared" si="43"/>
-        <v>0.2</v>
-      </c>
-      <c r="R53" s="3">
-        <f t="shared" si="43"/>
-        <v>0.2</v>
-      </c>
-      <c r="S53" s="3">
-        <f t="shared" si="43"/>
-        <v>0.2</v>
-      </c>
-      <c r="T53" s="3">
-        <f t="shared" si="43"/>
-        <v>0.2</v>
-      </c>
-      <c r="U53" s="3">
-        <f t="shared" si="43"/>
-        <v>0.2</v>
+      <c r="O53" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="P53" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R53" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="S53" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="T53" s="18">
+        <v>0.38</v>
+      </c>
+      <c r="U53" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="V53" s="18">
+        <v>0.46</v>
+      </c>
+      <c r="W53" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="X53" s="3">
+        <f>$W53</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y53" s="3">
+        <f t="shared" ref="Y53:AO53" si="89">$W53</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AL53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AM53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO53" s="3">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -11083,396 +14775,396 @@
   <dimension ref="A1:G2216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A1307" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="256" width="9.140625" style="5"/>
-    <col min="257" max="257" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="261" max="263" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="264" max="512" width="9.140625" style="5"/>
-    <col min="513" max="513" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="517" max="519" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="520" max="768" width="9.140625" style="5"/>
-    <col min="769" max="769" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="773" max="775" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="776" max="1024" width="9.140625" style="5"/>
-    <col min="1025" max="1025" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1031" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1280" width="9.140625" style="5"/>
-    <col min="1281" max="1281" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1287" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1536" width="9.140625" style="5"/>
-    <col min="1537" max="1537" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1543" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1792" width="9.140625" style="5"/>
-    <col min="1793" max="1793" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1799" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1800" max="2048" width="9.140625" style="5"/>
-    <col min="2049" max="2049" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2055" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2304" width="9.140625" style="5"/>
-    <col min="2305" max="2305" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2311" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2560" width="9.140625" style="5"/>
-    <col min="2561" max="2561" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2567" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2816" width="9.140625" style="5"/>
-    <col min="2817" max="2817" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2823" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2824" max="3072" width="9.140625" style="5"/>
-    <col min="3073" max="3073" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3079" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3328" width="9.140625" style="5"/>
-    <col min="3329" max="3329" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3335" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3584" width="9.140625" style="5"/>
-    <col min="3585" max="3585" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3591" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3840" width="9.140625" style="5"/>
-    <col min="3841" max="3841" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3847" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3848" max="4096" width="9.140625" style="5"/>
-    <col min="4097" max="4097" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4103" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4352" width="9.140625" style="5"/>
-    <col min="4353" max="4353" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4359" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4608" width="9.140625" style="5"/>
-    <col min="4609" max="4609" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4615" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4864" width="9.140625" style="5"/>
-    <col min="4865" max="4865" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4871" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4872" max="5120" width="9.140625" style="5"/>
-    <col min="5121" max="5121" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5127" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5376" width="9.140625" style="5"/>
-    <col min="5377" max="5377" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5383" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5632" width="9.140625" style="5"/>
-    <col min="5633" max="5633" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5639" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5888" width="9.140625" style="5"/>
-    <col min="5889" max="5889" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5895" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5896" max="6144" width="9.140625" style="5"/>
-    <col min="6145" max="6145" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6151" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6400" width="9.140625" style="5"/>
-    <col min="6401" max="6401" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6407" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6656" width="9.140625" style="5"/>
-    <col min="6657" max="6657" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6663" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6912" width="9.140625" style="5"/>
-    <col min="6913" max="6913" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6919" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6920" max="7168" width="9.140625" style="5"/>
-    <col min="7169" max="7169" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7175" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7424" width="9.140625" style="5"/>
-    <col min="7425" max="7425" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7431" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7680" width="9.140625" style="5"/>
-    <col min="7681" max="7681" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7687" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7936" width="9.140625" style="5"/>
-    <col min="7937" max="7937" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7943" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7944" max="8192" width="9.140625" style="5"/>
-    <col min="8193" max="8193" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8199" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8448" width="9.140625" style="5"/>
-    <col min="8449" max="8449" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8455" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8704" width="9.140625" style="5"/>
-    <col min="8705" max="8705" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8711" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8960" width="9.140625" style="5"/>
-    <col min="8961" max="8961" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8967" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8968" max="9216" width="9.140625" style="5"/>
-    <col min="9217" max="9217" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9223" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9472" width="9.140625" style="5"/>
-    <col min="9473" max="9473" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9479" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9728" width="9.140625" style="5"/>
-    <col min="9729" max="9729" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9735" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9984" width="9.140625" style="5"/>
-    <col min="9985" max="9985" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9991" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9992" max="10240" width="9.140625" style="5"/>
-    <col min="10241" max="10241" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10247" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10496" width="9.140625" style="5"/>
-    <col min="10497" max="10497" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10503" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10752" width="9.140625" style="5"/>
-    <col min="10753" max="10753" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10759" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10760" max="11008" width="9.140625" style="5"/>
-    <col min="11009" max="11009" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11015" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11264" width="9.140625" style="5"/>
-    <col min="11265" max="11265" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11271" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11520" width="9.140625" style="5"/>
-    <col min="11521" max="11521" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11527" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11776" width="9.140625" style="5"/>
-    <col min="11777" max="11777" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11783" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11784" max="12032" width="9.140625" style="5"/>
-    <col min="12033" max="12033" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12039" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12288" width="9.140625" style="5"/>
-    <col min="12289" max="12289" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12295" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12544" width="9.140625" style="5"/>
-    <col min="12545" max="12545" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12551" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12800" width="9.140625" style="5"/>
-    <col min="12801" max="12801" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12807" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12808" max="13056" width="9.140625" style="5"/>
-    <col min="13057" max="13057" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13063" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13312" width="9.140625" style="5"/>
-    <col min="13313" max="13313" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13319" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13568" width="9.140625" style="5"/>
-    <col min="13569" max="13569" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13575" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13824" width="9.140625" style="5"/>
-    <col min="13825" max="13825" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13831" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13832" max="14080" width="9.140625" style="5"/>
-    <col min="14081" max="14081" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14087" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14336" width="9.140625" style="5"/>
-    <col min="14337" max="14337" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14343" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14592" width="9.140625" style="5"/>
-    <col min="14593" max="14593" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14599" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14848" width="9.140625" style="5"/>
-    <col min="14849" max="14849" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14855" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14856" max="15104" width="9.140625" style="5"/>
-    <col min="15105" max="15105" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15111" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15360" width="9.140625" style="5"/>
-    <col min="15361" max="15361" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15367" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15616" width="9.140625" style="5"/>
-    <col min="15617" max="15617" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15623" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15872" width="9.140625" style="5"/>
-    <col min="15873" max="15873" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15879" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15880" max="16128" width="9.140625" style="5"/>
-    <col min="16129" max="16129" width="42.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16135" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="256" width="9.125" style="5"/>
+    <col min="257" max="257" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="261" max="263" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="264" max="512" width="9.125" style="5"/>
+    <col min="513" max="513" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="517" max="519" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="520" max="768" width="9.125" style="5"/>
+    <col min="769" max="769" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="773" max="775" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="776" max="1024" width="9.125" style="5"/>
+    <col min="1025" max="1025" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1031" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1280" width="9.125" style="5"/>
+    <col min="1281" max="1281" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1287" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1536" width="9.125" style="5"/>
+    <col min="1537" max="1537" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1543" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1792" width="9.125" style="5"/>
+    <col min="1793" max="1793" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1799" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1800" max="2048" width="9.125" style="5"/>
+    <col min="2049" max="2049" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2055" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2304" width="9.125" style="5"/>
+    <col min="2305" max="2305" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2311" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2560" width="9.125" style="5"/>
+    <col min="2561" max="2561" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2567" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2816" width="9.125" style="5"/>
+    <col min="2817" max="2817" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2823" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2824" max="3072" width="9.125" style="5"/>
+    <col min="3073" max="3073" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3079" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3328" width="9.125" style="5"/>
+    <col min="3329" max="3329" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3335" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3584" width="9.125" style="5"/>
+    <col min="3585" max="3585" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3591" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3840" width="9.125" style="5"/>
+    <col min="3841" max="3841" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3847" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3848" max="4096" width="9.125" style="5"/>
+    <col min="4097" max="4097" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4103" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4352" width="9.125" style="5"/>
+    <col min="4353" max="4353" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4359" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4608" width="9.125" style="5"/>
+    <col min="4609" max="4609" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4615" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4864" width="9.125" style="5"/>
+    <col min="4865" max="4865" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4871" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4872" max="5120" width="9.125" style="5"/>
+    <col min="5121" max="5121" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5127" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5376" width="9.125" style="5"/>
+    <col min="5377" max="5377" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5383" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5632" width="9.125" style="5"/>
+    <col min="5633" max="5633" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5639" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5888" width="9.125" style="5"/>
+    <col min="5889" max="5889" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5895" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5896" max="6144" width="9.125" style="5"/>
+    <col min="6145" max="6145" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6151" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6400" width="9.125" style="5"/>
+    <col min="6401" max="6401" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6407" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6656" width="9.125" style="5"/>
+    <col min="6657" max="6657" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6663" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6912" width="9.125" style="5"/>
+    <col min="6913" max="6913" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6919" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6920" max="7168" width="9.125" style="5"/>
+    <col min="7169" max="7169" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7175" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7424" width="9.125" style="5"/>
+    <col min="7425" max="7425" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7431" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7680" width="9.125" style="5"/>
+    <col min="7681" max="7681" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7687" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7936" width="9.125" style="5"/>
+    <col min="7937" max="7937" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7943" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7944" max="8192" width="9.125" style="5"/>
+    <col min="8193" max="8193" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8199" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8448" width="9.125" style="5"/>
+    <col min="8449" max="8449" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8455" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8704" width="9.125" style="5"/>
+    <col min="8705" max="8705" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8711" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8960" width="9.125" style="5"/>
+    <col min="8961" max="8961" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8967" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8968" max="9216" width="9.125" style="5"/>
+    <col min="9217" max="9217" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9223" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9472" width="9.125" style="5"/>
+    <col min="9473" max="9473" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9479" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9728" width="9.125" style="5"/>
+    <col min="9729" max="9729" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9735" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9984" width="9.125" style="5"/>
+    <col min="9985" max="9985" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9991" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9992" max="10240" width="9.125" style="5"/>
+    <col min="10241" max="10241" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10247" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10496" width="9.125" style="5"/>
+    <col min="10497" max="10497" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10503" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10752" width="9.125" style="5"/>
+    <col min="10753" max="10753" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10759" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10760" max="11008" width="9.125" style="5"/>
+    <col min="11009" max="11009" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11015" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11264" width="9.125" style="5"/>
+    <col min="11265" max="11265" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11271" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11520" width="9.125" style="5"/>
+    <col min="11521" max="11521" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11527" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11776" width="9.125" style="5"/>
+    <col min="11777" max="11777" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11783" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11784" max="12032" width="9.125" style="5"/>
+    <col min="12033" max="12033" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12039" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12288" width="9.125" style="5"/>
+    <col min="12289" max="12289" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12295" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12544" width="9.125" style="5"/>
+    <col min="12545" max="12545" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12551" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12800" width="9.125" style="5"/>
+    <col min="12801" max="12801" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12807" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12808" max="13056" width="9.125" style="5"/>
+    <col min="13057" max="13057" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13063" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13312" width="9.125" style="5"/>
+    <col min="13313" max="13313" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13319" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13568" width="9.125" style="5"/>
+    <col min="13569" max="13569" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13575" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13824" width="9.125" style="5"/>
+    <col min="13825" max="13825" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13831" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13832" max="14080" width="9.125" style="5"/>
+    <col min="14081" max="14081" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14087" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14336" width="9.125" style="5"/>
+    <col min="14337" max="14337" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14343" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14592" width="9.125" style="5"/>
+    <col min="14593" max="14593" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14599" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14848" width="9.125" style="5"/>
+    <col min="14849" max="14849" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14855" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14856" max="15104" width="9.125" style="5"/>
+    <col min="15105" max="15105" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15111" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15360" width="9.125" style="5"/>
+    <col min="15361" max="15361" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15367" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15616" width="9.125" style="5"/>
+    <col min="15617" max="15617" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15623" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15872" width="9.125" style="5"/>
+    <col min="15873" max="15873" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15879" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15880" max="16128" width="9.125" style="5"/>
+    <col min="16129" max="16129" width="42.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16135" width="20.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -62415,14 +66107,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.25" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -62434,14 +66126,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B2" s="39">
         <f>'EIA ESRAP Table 10'!E947</f>
         <v>30752653</v>
       </c>
       <c r="C2" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -62453,7 +66145,7 @@
         <v>11719765</v>
       </c>
       <c r="C3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -62465,7 +66157,7 @@
         <v>67898619</v>
       </c>
       <c r="C4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -62477,7 +66169,7 @@
         <v>25426201</v>
       </c>
       <c r="C5" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -62496,7 +66188,7 @@
         <v>15693047</v>
       </c>
       <c r="C8" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -62508,7 +66200,7 @@
         <v>5095442</v>
       </c>
       <c r="C9" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -62520,7 +66212,7 @@
         <v>23093771</v>
       </c>
       <c r="C10" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -62539,7 +66231,7 @@
         <v>98703810</v>
       </c>
       <c r="C13" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -62551,7 +66243,7 @@
         <v>18389062</v>
       </c>
       <c r="C14" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -62563,7 +66255,7 @@
         <v>1833365</v>
       </c>
       <c r="C15" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -62582,7 +66274,7 @@
         <v>30501100</v>
       </c>
       <c r="C18" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -62594,7 +66286,7 @@
         <v>13881030</v>
       </c>
       <c r="C19" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -62606,7 +66298,7 @@
         <v>8269335</v>
       </c>
       <c r="C20" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -62625,7 +66317,7 @@
         <v>45493070</v>
       </c>
       <c r="C23" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -62637,7 +66329,7 @@
         <v>1364792.0999999999</v>
       </c>
       <c r="C24" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -62649,264 +66341,276 @@
         <v>682396.04999999993</v>
       </c>
       <c r="C25" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2058</v>
+        <v>2123</v>
       </c>
       <c r="B26">
-        <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,"OR",'EIA ESRAP Table 10'!E:E,"&gt;"&amp;B24)</f>
-        <v>32898218</v>
+        <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,"OR",'EIA ESRAP Table 10'!E:E,"&gt;"&amp;B24,'EIA ESRAP Table 10'!C:C,"Investor Owned")</f>
+        <v>30561922</v>
       </c>
       <c r="C26" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B27">
+        <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,"OR",'EIA ESRAP Table 10'!E:E,"&gt;"&amp;B24)-B26</f>
+        <v>2336296</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>2057</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,"OR",'EIA ESRAP Table 10'!E:E,"&lt;"&amp;B24,'EIA ESRAP Table 10'!E:E,"&gt;"&amp;B25)</f>
         <v>5049535</v>
       </c>
-      <c r="C27" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>2056</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <f>SUMIFS('EIA ESRAP Table 10'!E:E,'EIA ESRAP Table 10'!B:B,"OR",'EIA ESRAP Table 10'!E:E,"&lt;"&amp;B25)</f>
         <v>7545317</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32">
+        <v>109584</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31">
-        <v>109584</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>2064</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>2044</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <f>SUMIFS('EIA ESRAP Table 10'!$E$4:$E$2169,'EIA ESRAP Table 10'!$B$4:$B$2169,"MO",'EIA ESRAP Table 10'!$C$4:$C$2169,"Investor Owned")</f>
         <v>57920649</v>
       </c>
-      <c r="C34" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>2045</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <f>SUMIF('EIA ESRAP Table 10'!$B$4:$B$2169,"MO",'EIA ESRAP Table 10'!$E$4:$E$2169)</f>
         <v>82334440</v>
       </c>
-      <c r="C35" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>2047</v>
       </c>
-      <c r="B36">
-        <f>B35-B34</f>
+      <c r="B37">
+        <f>B36-B35</f>
         <v>24413791</v>
       </c>
-      <c r="C36" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="C37" t="s">
+        <v>2062</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="8" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>2044</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <f>SUMIFS('EIA ESRAP Table 10'!$E$4:$E$2169,'EIA ESRAP Table 10'!$B$4:$B$2169,"NV",'EIA ESRAP Table 10'!$C$4:$C$2169,"Investor Owned")</f>
         <v>29206102</v>
       </c>
-      <c r="C39" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>2045</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <f>SUMIF('EIA ESRAP Table 10'!$B$4:$B$2169,"NV",'EIA ESRAP Table 10'!$E$4:$E$2169)</f>
         <v>32754800</v>
       </c>
-      <c r="C40" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>2047</v>
       </c>
-      <c r="B41">
-        <f>B40-B39</f>
+      <c r="B42">
+        <f>B41-B40</f>
         <v>3548698</v>
       </c>
-      <c r="C41" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="C42" t="s">
+        <v>2062</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="8" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>2044</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <f>SUMIFS('EIA ESRAP Table 10'!$E$4:$E$2169,'EIA ESRAP Table 10'!$B$4:$B$2169,"NH",'EIA ESRAP Table 10'!$C$4:$C$2169,"Investor Owned")</f>
         <v>5098840</v>
       </c>
-      <c r="C44" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>2045</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <f>SUMIF('EIA ESRAP Table 10'!$B$4:$B$2169,"NH",'EIA ESRAP Table 10'!$E$4:$E$2169)</f>
         <v>5819102</v>
       </c>
-      <c r="C45" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>2047</v>
       </c>
-      <c r="B46">
-        <f>B45-B44</f>
+      <c r="B47">
+        <f>B46-B45</f>
         <v>720262</v>
       </c>
-      <c r="C46" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="C47" t="s">
+        <v>2062</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="8" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>2044</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <f>SUMIFS('EIA ESRAP Table 10'!$E$4:$E$2169,'EIA ESRAP Table 10'!$B$4:$B$2169,"OH",'EIA ESRAP Table 10'!$C$4:$C$2169,"Investor Owned")</f>
         <v>35226990</v>
       </c>
-      <c r="C49" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C50" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>2045</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <f>SUMIF('EIA ESRAP Table 10'!$B$4:$B$2169,"OH",'EIA ESRAP Table 10'!$E$4:$E$2169)</f>
         <v>51787482</v>
       </c>
-      <c r="C50" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C51" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>2047</v>
       </c>
-      <c r="B51">
-        <f>B50-B49</f>
+      <c r="B52">
+        <f>B51-B50</f>
         <v>16560492</v>
       </c>
-      <c r="C51" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="C52" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>2068</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B54">
+      <c r="B55">
         <f>SUMIFS('EIA ESRAP Table 10'!$E$4:$E$2169,'EIA ESRAP Table 10'!$B$4:$B$2169,"WA",'EIA ESRAP Table 10'!$D$4:$D$2169,"&gt;25000")</f>
         <v>72453469</v>
       </c>
-      <c r="C54" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C55" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>2045</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <f>SUMIF('EIA ESRAP Table 10'!$B$4:$B$2169,"WA",'EIA ESRAP Table 10'!$E$4:$E$2169)</f>
         <v>89558065</v>
       </c>
-      <c r="C55" t="s">
-        <v>2063</v>
+      <c r="C56" t="s">
+        <v>2062</v>
       </c>
     </row>
   </sheetData>
@@ -62920,7 +66624,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -62929,7 +66633,7 @@
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -62981,74 +66685,214 @@
       <c r="Q1">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!F3:F53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>6.1974203787471809E-2</v>
+        <v>6.1864168672072631E-2</v>
       </c>
       <c r="C2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!G3:G53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>6.7617337141399309E-2</v>
+        <v>6.749996635164017E-2</v>
       </c>
       <c r="D2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!H3:H53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>7.3968881153182328E-2</v>
+        <v>7.3844174689063249E-2</v>
       </c>
       <c r="E2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!I3:I53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>8.0416596954348302E-2</v>
+        <v>8.0284554815869269E-2</v>
       </c>
       <c r="F2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!J3:J53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>8.5904505238911619E-2</v>
+        <v>8.576512742607266E-2</v>
       </c>
       <c r="G2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!K3:K53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>9.1181683963830223E-2</v>
+        <v>9.1034970476631297E-2</v>
       </c>
       <c r="H2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!L3:L53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>9.5623900582638977E-2</v>
+        <v>9.5530429561653321E-2</v>
       </c>
       <c r="I2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!M3:M53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>9.9285704693615542E-2</v>
+        <v>9.9245476138843158E-2</v>
       </c>
       <c r="J2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!N3:N53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>0.10259596440537253</v>
+        <v>0.10260897831681341</v>
       </c>
       <c r="K2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!O3:O53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>0.10590622411712951</v>
+        <v>0.10600089950103928</v>
       </c>
       <c r="L2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!P3:P53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>0.10915553713543348</v>
+        <v>0.10933187399181206</v>
       </c>
       <c r="M2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!Q3:Q53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>0.11114990433621397</v>
+        <v>0.11157048111768658</v>
       </c>
       <c r="N2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!R3:R53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>0.11282873985502573</v>
+        <v>0.11349355656159237</v>
       </c>
       <c r="O2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!S3:S53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>0.11450757537383746</v>
+        <v>0.11541663200549812</v>
       </c>
       <c r="P2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!T3:T53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>0.11617615337770394</v>
+        <v>0.11732944993445861</v>
       </c>
       <c r="Q2" s="48">
         <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!U3:U53)/SUM('RPS by State'!$D3:$D53)</f>
-        <v>0.11784473138157039</v>
+        <v>0.11925174086550427</v>
+      </c>
+      <c r="R2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!V3:V53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.1197099939904762</v>
+      </c>
+      <c r="S2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!W3:W53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12016824711544809</v>
+      </c>
+      <c r="T2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!X3:X53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12056529026567921</v>
+      </c>
+      <c r="U2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!Y3:Y53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12096233341591034</v>
+      </c>
+      <c r="V2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!Z3:Z53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.1213593765661414</v>
+      </c>
+      <c r="W2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AA3:AA53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12163655937256658</v>
+      </c>
+      <c r="X2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AB3:AB53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12191374217899174</v>
+      </c>
+      <c r="Y2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AC3:AC53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12219092498541688</v>
+      </c>
+      <c r="Z2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AD3:AD53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12246810779184203</v>
+      </c>
+      <c r="AA2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AE3:AE53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12274529059826716</v>
+      </c>
+      <c r="AB2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AF3:AF53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12301569156637414</v>
+      </c>
+      <c r="AC2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AG3:AG53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.1232860925344811</v>
+      </c>
+      <c r="AD2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AH3:AH53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12355649350258807</v>
+      </c>
+      <c r="AE2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AI3:AI53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.123826894470695</v>
+      </c>
+      <c r="AF2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AJ3:AJ53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12409729543880196</v>
+      </c>
+      <c r="AG2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AK3:AK53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12418933893348039</v>
+      </c>
+      <c r="AH2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AL3:AL53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12428138242815875</v>
+      </c>
+      <c r="AI2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AM3:AM53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12437342592283716</v>
+      </c>
+      <c r="AJ2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AN3:AN53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12446546941751555</v>
+      </c>
+      <c r="AK2" s="48">
+        <f>SUMPRODUCT('RPS by State'!$D3:$D53,'RPS by State'!AO3:AO53)/SUM('RPS by State'!$D3:$D53)</f>
+        <v>0.12455751291219395</v>
       </c>
     </row>
   </sheetData>
